--- a/final_results/metrics/metrics_site_12.xlsx
+++ b/final_results/metrics/metrics_site_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,17 +461,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Theta</t>
+          <t>Chronos Zero Shot</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.5906533732038286</v>
+        <v>0.423261113547847</v>
       </c>
       <c r="D2" t="n">
-        <v>1.329631564667488</v>
+        <v>0.9699754484722222</v>
       </c>
       <c r="E2" t="n">
-        <v>1.744932596783465</v>
+        <v>1.355007112388216</v>
       </c>
     </row>
     <row r="3">
@@ -480,17 +480,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AutoARIMA</t>
+          <t>Chronos Fine Tuned</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.4177765164293045</v>
+        <v>0.5314460434637089</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9351069911166684</v>
+        <v>1.015826117694444</v>
       </c>
       <c r="E3" t="n">
-        <v>1.351336290590309</v>
+        <v>1.328390338232785</v>
       </c>
     </row>
     <row r="4">
@@ -499,17 +499,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chronos</t>
+          <t>Theta</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.5359461860396556</v>
+        <v>0.5906533732038286</v>
       </c>
       <c r="D4" t="n">
-        <v>1.031098001048832</v>
+        <v>1.329631564667488</v>
       </c>
       <c r="E4" t="n">
-        <v>1.340496720757364</v>
+        <v>1.744932596783465</v>
       </c>
     </row>
     <row r="5">
@@ -518,17 +518,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SARIMAX</t>
+          <t>AutoARIMA</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.6154826635260173</v>
+        <v>0.4177765164293045</v>
       </c>
       <c r="D5" t="n">
-        <v>1.320108566120498</v>
+        <v>0.9351069911166684</v>
       </c>
       <c r="E5" t="n">
-        <v>1.740053620482846</v>
+        <v>1.351336290590309</v>
       </c>
     </row>
     <row r="6">
@@ -537,16 +537,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>SARIMAX</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6154826635260173</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.320108566120498</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.740053620482846</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>LSTM</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>0.3776996800351078</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.9683219728611108</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E7" t="n">
         <v>1.469914787458249</v>
       </c>
     </row>
